--- a/downloaded_files/MDPS251_Lecture-35617.xlsx
+++ b/downloaded_files/MDPS251_Lecture-35617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ibrahim Ashraf Hassan Mohib Ghanem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mahmoud Mohammed Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1220109</x:t>
@@ -317,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -627,7 +636,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.990625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="42.710625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -740,7 +749,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.665227581</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -772,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6649331829</x:v>
+        <x:v>45907.665227581</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -804,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6655521644</x:v>
+        <x:v>45907.6649331829</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -836,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.6655521644</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -868,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6649270486</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6649270486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4198889236</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45909.4198889236</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6756452199</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1310,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45907.6756452199</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS251_Lecture-35617.xlsx
+++ b/downloaded_files/MDPS251_Lecture-35617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ashraf Shaaban AbduYoussef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240190</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف مصطفى احمد محمود عبدالعال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mostafa Ahmed Mahmoud</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45907.6756452199</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS251_Lecture-35617.xlsx
+++ b/downloaded_files/MDPS251_Lecture-35617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Sara Ahmed Ali Soliman</x:t>
   </x:si>
   <x:si>
+    <x:t>1240225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سعد عبد الغني صباغ شرباتي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>saad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230219</x:t>
   </x:si>
   <x:si>
@@ -157,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Maher Mohammed Fathy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد محمد سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ahmed Mohamed Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1230248</x:t>
@@ -317,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1028,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45922.8921223727</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4198889236</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45909.4198889236</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45922.8909831829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1252,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1284,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1301,6 +1319,70 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45907.671475463</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS251_Lecture-35617.xlsx
+++ b/downloaded_files/MDPS251_Lecture-35617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mustafa Ahmed Al-Sayed Ahmed Khater</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر هانى محمد حسن محمد سعيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hani Mohammed Hassan Mohammed Saeed</x:t>
   </x:si>
   <x:si>
     <x:t>1230083</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -644,7 +653,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.990625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="45.080625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4198889236</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45909.4198889236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.8909831829</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45922.8909831829</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS251_Lecture-35617.xlsx
+++ b/downloaded_files/MDPS251_Lecture-35617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Ibrahim Ashraf Hassan Mohib Ghanem</x:t>
   </x:si>
   <x:si>
+    <x:t>1240003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد باسم وجيه رجب الخولى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Bassem Wagih Ragab Elkholy</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250164</x:t>
   </x:si>
   <x:si>
@@ -69,6 +78,15 @@
     <x:t>Adham Adel Said Muhamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1240177</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اكرم تيسير فهيم عبد الحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِ Akram Tisser Fahim Abdel Halim</x:t>
+  </x:si>
+  <x:si>
     <x:t>2230016</x:t>
   </x:si>
   <x:si>
@@ -94,6 +112,15 @@
   </x:si>
   <x:si>
     <x:t>Jana Mohamed Sayed Abdelaziz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه محمد محجوب منصور صباح</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Mohammed Mahgoub Munsour r</x:t>
   </x:si>
   <x:si>
     <x:t>1230185</x:t>
@@ -344,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -644,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -767,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45919.4327795949</x:v>
+        <x:v>45925.4172774653</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -799,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.665227581</x:v>
+        <x:v>45919.4327795949</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -831,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6649331829</x:v>
+        <x:v>45907.665227581</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -863,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6655521644</x:v>
+        <x:v>45907.6649331829</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -895,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45925.3722761921</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -927,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6649270486</x:v>
+        <x:v>45907.6655521644</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -959,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -991,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45907.6649270486</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1023,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45925.370965081</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1055,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45922.8921223727</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1087,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1119,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1151,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4198889236</x:v>
+        <x:v>45922.8921223727</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1183,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1215,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1247,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.8909831829</x:v>
+        <x:v>45909.4198889236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1279,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1311,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1343,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45922.8909831829</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1375,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1407,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1424,6 +1451,102 @@
       <x:c r="R23" s="2" t="s"/>
       <x:c r="S23" s="2" t="s"/>
       <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45907.6649320949</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45907.671475463</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS251_Lecture-35617.xlsx
+++ b/downloaded_files/MDPS251_Lecture-35617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Hunya haytham mahmoud  soltan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1240396</x:t>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1530,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45929.3192996875</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS251_Lecture-35617.xlsx
+++ b/downloaded_files/MDPS251_Lecture-35617.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>ِ Akram Tisser Fahim Abdel Halim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230143</x:t>
+  </x:si>
+  <x:si>
+    <x:t>البراء اشرف سيد عبدالموجود حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Albraa Ashraf Sayed Abdelmawgoud Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>2230016</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -963,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6655521644</x:v>
+        <x:v>45933.5295567477</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.6655521644</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6649270486</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45925.370965081</x:v>
+        <x:v>45907.6649270486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.665765081</x:v>
+        <x:v>45925.370965081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4149852199</x:v>
+        <x:v>45907.665765081</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45907.4149852199</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45922.8921223727</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45908.4154959491</x:v>
+        <x:v>45922.8921223727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45924.5387831829</x:v>
+        <x:v>45908.4154959491</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4198889236</x:v>
+        <x:v>45924.5387831829</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6657648958</x:v>
+        <x:v>45909.4198889236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.665284375</x:v>
+        <x:v>45907.6657648958</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.8909831829</x:v>
+        <x:v>45907.665284375</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45922.8909831829</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6649320949</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.671475463</x:v>
+        <x:v>45907.6649320949</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45929.3192996875</x:v>
+        <x:v>45907.671475463</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45929.3192996875</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
